--- a/miscellaneous/pwmSupport.xlsx
+++ b/miscellaneous/pwmSupport.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sosnus\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sosnus\Source\Repos\SosnusIotPlatform\SosnusIotPlatform\miscellaneous\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="19560" windowHeight="8115"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="19560" windowHeight="8115"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="44">
   <si>
     <t>value</t>
   </si>
@@ -96,6 +96,66 @@
   </si>
   <si>
     <t>fill now procent</t>
+  </si>
+  <si>
+    <t>from -100 to 100</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>while</t>
+  </si>
+  <si>
+    <t>0.8 to 2.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to </t>
+  </si>
+  <si>
+    <t>4% to 11,5%</t>
+  </si>
+  <si>
+    <t>=(D19-50)*2</t>
+  </si>
+  <si>
+    <t>=(D19*2)-100</t>
+  </si>
+  <si>
+    <t>7.5</t>
+  </si>
+  <si>
+    <t>% fill</t>
+  </si>
+  <si>
+    <t>11.5</t>
+  </si>
+  <si>
+    <t>&gt;</t>
+  </si>
+  <si>
+    <t>x*2-100</t>
+  </si>
+  <si>
+    <t>x/2+50</t>
+  </si>
+  <si>
+    <t>(x*7,5)/100</t>
+  </si>
+  <si>
+    <t>x+4</t>
+  </si>
+  <si>
+    <t>for tesr</t>
+  </si>
+  <si>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>x*2,3/100</t>
   </si>
 </sst>
 </file>
@@ -132,8 +192,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -448,14 +510,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="5" max="5" width="13.85546875" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
   </cols>
   <sheetData>
@@ -650,6 +713,176 @@
         <v>17</v>
       </c>
     </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>100</v>
+      </c>
+      <c r="D19">
+        <v>50</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F20" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>5</v>
+      </c>
+      <c r="F21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22">
+        <v>-100</v>
+      </c>
+      <c r="C22">
+        <v>100</v>
+      </c>
+      <c r="D22" s="1">
+        <f>(D19*2)-100</f>
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>100</v>
+      </c>
+      <c r="D23">
+        <f>D22/2+50</f>
+        <v>50</v>
+      </c>
+      <c r="E23" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24">
+        <f>(D23*7.5)/100</f>
+        <v>3.75</v>
+      </c>
+      <c r="E24" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>4</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D25">
+        <f>D24+4</f>
+        <v>7.75</v>
+      </c>
+      <c r="E25" t="s">
+        <v>39</v>
+      </c>
+      <c r="F25" t="s">
+        <v>26</v>
+      </c>
+      <c r="H25">
+        <f>0.8/20</f>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26">
+        <f>D25*2.3</f>
+        <v>17.824999999999999</v>
+      </c>
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26">
+        <f>2.3/20</f>
+        <v>0.11499999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <f>B25</f>
+        <v>4</v>
+      </c>
+      <c r="C28" t="str">
+        <f t="shared" ref="C28:D28" si="0">C25</f>
+        <v>11.5</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>7.75</v>
+      </c>
+      <c r="F28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F30">
+        <f>11.5-4</f>
+        <v>7.5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
